--- a/biology/Botanique/Cassipourea_guianensis/Cassipourea_guianensis.xlsx
+++ b/biology/Botanique/Cassipourea_guianensis/Cassipourea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassipourea guianensis est une espèce de plantes à fleurs de la famille des Rhizophoraceae. C'est un petit arbre présent en Amérique du Sud.
-En Guyane, on le connaît sous les noms de yawa poɨlɨ (Wayãpi), wakãu (Palikur)[2].
-Au Suriname, on l'appelle Allawata andékélé (Karib), Mamocsalé, Mamocdan (Arawak)[3].
+En Guyane, on le connaît sous les noms de yawa poɨlɨ (Wayãpi), wakãu (Palikur).
+Au Suriname, on l'appelle Allawata andékélé (Karib), Mamocsalé, Mamocdan (Arawak).
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cassipourea guianensis est un arbre ou un arbuste haut de 3–25 m[4]. Les branches sont cylindriques, glabres ou, parfois, pubescentes dans les parties les plus jeunes. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cassipourea guianensis est un arbre ou un arbuste haut de 3–25 m. Les branches sont cylindriques, glabres ou, parfois, pubescentes dans les parties les plus jeunes. 
 Les feuilles sont courtement pétiolées, avec un limbe glabre, herbacé à subcoriace, de forme oblongue, arrondie à base sillonnée, à l'apex généralement légèrement acuminé, entiers ou dentés vers le haut, mesure jusqu'à 18 cm de long, pour 77 mm de large. Les pétioles sont glabres ou légèrement pubescents puis glabrescents, jusqu'à 8 mm de longueur. Les stipules sont caduques, lancéolées, aigus, poilus à l'extérieur, souvent glabrescents, mesurant jusqu'à 5 mm de long. Les bractées sont très petites, écailleuses et pileuses. 
 Les boutons floraux sont verts. La fleur est tétra- à pentamère, blanche, parfois à couronne rouge, odorante, subsessile, ou, parfois, munie de pédicelles mesurant jusqu'à 1,5 mm de long, organisées en grappes axillaires, de 2 à 6 fleurs. Le calice est campanulé, sérieux à l'intérieur, glabre à l'extérieur, ou peu pileux et devenant glabrescent, à lobes dressés, triangulaires, subaigus, longs d'environ 2,5 mm pour 1,5 mm de large. Le tube est long d'environ 2,5 mm. Les pétales sont blancs ou rouges, onguiculés, avec des griffes longues d'environ 4 mm, spatulés, laciniés et frangés. La frange est longue d'environ 2,5 mm, avec des filets à frange linéaires, blanches, densément poilues, jusqu'à 4 mm de long. On compte environ 16 (12-20) étamines de longueur inégale, avec des filaments longs de 4-7 mm. Les anthères sont longues jusqu'à 1 mm. Disque annulaire, est haut d'environ 1 mm. L'ovaire densément pileux, est long d'environ 1,5 mm, avec 5 loges contenant chacune 2 ovules axillaires. Le style est cylindrique, sérieux-villeux, persistant, long d'environ 5 mm, avec un stigmate capité. 
-Le fruit est une capsule glabrescente, de forme oblongue à ovoïde, longue d'environ 1 cm, divisée en 3 loges contenant chacune une graine rattaché à un arille pendant. Les graines mesurent environ 7 mm de long, et les arilles environ 3 mm[3].
+Le fruit est une capsule glabrescente, de forme oblongue à ovoïde, longue d'environ 1 cm, divisée en 3 loges contenant chacune une graine rattaché à un arille pendant. Les graines mesurent environ 7 mm de long, et les arilles environ 3 mm.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cassipourea guianensis est présent du Venezuela à l'Amazonie brésilienne (Amazonas, Maranhao, Pará) en passant par Trinidad et Tobago, le Guyana, le Suriname et la Guyane[4],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cassipourea guianensis est présent du Venezuela à l'Amazonie brésilienne (Amazonas, Maranhao, Pará) en passant par Trinidad et Tobago, le Guyana, le Suriname et la Guyane,.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Cassipourea guianensis dans les forêts sempervirentes ou semi-décidues le long des cours d'eau, forêts perturbées, depuis le niveau de la mer jusqu'à 1 000 m[4]. Il affectionne les forêts humides et des arrière-mangroves[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Cassipourea guianensis dans les forêts sempervirentes ou semi-décidues le long des cours d'eau, forêts perturbées, depuis le niveau de la mer jusqu'à 1 000 m. Il affectionne les forêts humides et des arrière-mangroves.
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cassipourea guianensis est utilisé pour soigner la gale chez les Palikur (bain de l'écorce amère)[2].
-Les racines et les tiges du genre Cassipourea renferment des alcaloïdes pyrolidiniques[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cassipourea guianensis est utilisé pour soigner la gale chez les Palikur (bain de l'écorce amère).
+Les racines et les tiges du genre Cassipourea renferment des alcaloïdes pyrolidiniques.
 </t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[6] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « CASSIPOUREA Guianenſis. (Tabula 211.) 
 Arbor mediocris, trunco quinque-pedali, in ſummitate ramoſa ; ramulis oppoſitis, nodoſis. Folia ad nodos oppoſita, ovata, acuta, glabra, integerrima, ſubſeſſilia. Stipula minima, breviſſima, acuta, utrinque ad baſim foliorum. Flores ceſpitoſi, axillares, ſeſſiles, intrà binas bracteas oppoſitas. 
 Florebat Januario. 
